--- a/2em/1DES/chamada.xlsx
+++ b/2em/1DES/chamada.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\1DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58027C8-646B-4B22-8EBA-A5A5E654BF3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="46">
   <si>
     <t>Aluno</t>
   </si>
@@ -159,12 +160,15 @@
   </si>
   <si>
     <t xml:space="preserve">P </t>
+  </si>
+  <si>
+    <t>2/P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,14 +535,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AM35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="S13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ32" sqref="AJ32"/>
+      <selection pane="bottomRight" activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,10 +553,10 @@
     <col min="14" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
     <col min="30" max="34" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>32</v>
       </c>
@@ -652,8 +656,17 @@
       <c r="AJ1" t="s">
         <v>33</v>
       </c>
+      <c r="AK1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -762,8 +775,17 @@
       <c r="AJ2" s="1">
         <v>45436</v>
       </c>
+      <c r="AK2" s="1">
+        <v>45439</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>45446</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>45450</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -872,8 +894,11 @@
       <c r="AJ3" t="s">
         <v>34</v>
       </c>
+      <c r="AK3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -982,8 +1007,11 @@
       <c r="AJ4" t="s">
         <v>34</v>
       </c>
+      <c r="AK4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24125230</v>
       </c>
@@ -1092,8 +1120,11 @@
       <c r="AJ5" t="s">
         <v>34</v>
       </c>
+      <c r="AK5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24125329</v>
       </c>
@@ -1202,8 +1233,11 @@
       <c r="AJ6" t="s">
         <v>34</v>
       </c>
+      <c r="AK6" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24125304</v>
       </c>
@@ -1312,8 +1346,11 @@
       <c r="AJ7" t="s">
         <v>34</v>
       </c>
+      <c r="AK7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24125331</v>
       </c>
@@ -1422,8 +1459,11 @@
       <c r="AJ8" t="s">
         <v>34</v>
       </c>
+      <c r="AK8" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24125308</v>
       </c>
@@ -1532,8 +1572,11 @@
       <c r="AJ9" t="s">
         <v>34</v>
       </c>
+      <c r="AK9" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125247</v>
       </c>
@@ -1642,8 +1685,11 @@
       <c r="AJ10" t="s">
         <v>35</v>
       </c>
+      <c r="AK10" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24125212</v>
       </c>
@@ -1752,8 +1798,11 @@
       <c r="AJ11" t="s">
         <v>35</v>
       </c>
+      <c r="AK11" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24125232</v>
       </c>
@@ -1862,8 +1911,11 @@
       <c r="AJ12" t="s">
         <v>34</v>
       </c>
+      <c r="AK12" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24125214</v>
       </c>
@@ -1972,8 +2024,11 @@
       <c r="AJ13" t="s">
         <v>34</v>
       </c>
+      <c r="AK13" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -2079,8 +2134,11 @@
       <c r="AJ14" t="s">
         <v>35</v>
       </c>
+      <c r="AK14" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24125249</v>
       </c>
@@ -2189,8 +2247,11 @@
       <c r="AJ15" t="s">
         <v>34</v>
       </c>
+      <c r="AK15" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24125293</v>
       </c>
@@ -2299,8 +2360,11 @@
       <c r="AJ16" t="s">
         <v>34</v>
       </c>
+      <c r="AK16" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125310</v>
       </c>
@@ -2409,8 +2473,11 @@
       <c r="AJ17" t="s">
         <v>34</v>
       </c>
+      <c r="AK17" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125295</v>
       </c>
@@ -2519,8 +2586,11 @@
       <c r="AJ18" t="s">
         <v>34</v>
       </c>
+      <c r="AK18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125251</v>
       </c>
@@ -2629,8 +2699,11 @@
       <c r="AJ19" t="s">
         <v>34</v>
       </c>
+      <c r="AK19" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125334</v>
       </c>
@@ -2739,8 +2812,11 @@
       <c r="AJ20" t="s">
         <v>35</v>
       </c>
+      <c r="AK20" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125297</v>
       </c>
@@ -2849,8 +2925,11 @@
       <c r="AJ21" t="s">
         <v>34</v>
       </c>
+      <c r="AK21" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125234</v>
       </c>
@@ -2959,8 +3038,11 @@
       <c r="AJ22" t="s">
         <v>34</v>
       </c>
+      <c r="AK22" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125216</v>
       </c>
@@ -3069,8 +3151,11 @@
       <c r="AJ23" t="s">
         <v>34</v>
       </c>
+      <c r="AK23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125236</v>
       </c>
@@ -3179,8 +3264,11 @@
       <c r="AJ24" t="s">
         <v>34</v>
       </c>
+      <c r="AK24" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125238</v>
       </c>
@@ -3289,8 +3377,11 @@
       <c r="AJ25" t="s">
         <v>34</v>
       </c>
+      <c r="AK25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125218</v>
       </c>
@@ -3399,8 +3490,11 @@
       <c r="AJ26" t="s">
         <v>34</v>
       </c>
+      <c r="AK26" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125220</v>
       </c>
@@ -3509,8 +3603,11 @@
       <c r="AJ27" t="s">
         <v>34</v>
       </c>
+      <c r="AK27" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125299</v>
       </c>
@@ -3619,8 +3716,11 @@
       <c r="AJ28" t="s">
         <v>34</v>
       </c>
+      <c r="AK28" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125301</v>
       </c>
@@ -3729,8 +3829,11 @@
       <c r="AJ29" t="s">
         <v>34</v>
       </c>
+      <c r="AK29" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125316</v>
       </c>
@@ -3839,8 +3942,11 @@
       <c r="AJ30" t="s">
         <v>34</v>
       </c>
+      <c r="AK30" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125306</v>
       </c>
@@ -3949,8 +4055,11 @@
       <c r="AJ31" t="s">
         <v>34</v>
       </c>
+      <c r="AK31" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125254</v>
       </c>
@@ -4057,10 +4166,13 @@
         <v>34</v>
       </c>
       <c r="AJ32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125347</v>
       </c>
@@ -4169,8 +4281,11 @@
       <c r="AJ33" t="s">
         <v>34</v>
       </c>
+      <c r="AK33" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>40</v>
       </c>
@@ -4243,15 +4358,18 @@
       <c r="AJ34" t="s">
         <v>34</v>
       </c>
+      <c r="AK34" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AF35" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:AI34">
     <sortCondition ref="B2"/>
   </sortState>
-  <conditionalFormatting sqref="D3:AD34 AF3:AJ34">
+  <conditionalFormatting sqref="D3:AD34 AF3:AK34">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2em/1DES/chamada.xlsx
+++ b/2em/1DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\1DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58027C8-646B-4B22-8EBA-A5A5E654BF3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95861815-039B-4A7D-B72F-B77EB56456AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="46">
   <si>
     <t>Aluno</t>
   </si>
@@ -542,7 +542,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM3" sqref="AM3"/>
+      <selection pane="bottomRight" activeCell="AL33" sqref="AL33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,6 +897,9 @@
       <c r="AK3" t="s">
         <v>34</v>
       </c>
+      <c r="AL3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1010,6 +1013,9 @@
       <c r="AK4" t="s">
         <v>34</v>
       </c>
+      <c r="AL4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1123,6 +1129,9 @@
       <c r="AK5" t="s">
         <v>34</v>
       </c>
+      <c r="AL5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1236,6 +1245,9 @@
       <c r="AK6" t="s">
         <v>34</v>
       </c>
+      <c r="AL6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1349,6 +1361,9 @@
       <c r="AK7" t="s">
         <v>34</v>
       </c>
+      <c r="AL7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1462,6 +1477,9 @@
       <c r="AK8" t="s">
         <v>34</v>
       </c>
+      <c r="AL8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1575,6 +1593,9 @@
       <c r="AK9" t="s">
         <v>34</v>
       </c>
+      <c r="AL9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1688,6 +1709,9 @@
       <c r="AK10" t="s">
         <v>34</v>
       </c>
+      <c r="AL10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1801,6 +1825,9 @@
       <c r="AK11" t="s">
         <v>34</v>
       </c>
+      <c r="AL11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1914,6 +1941,9 @@
       <c r="AK12" t="s">
         <v>34</v>
       </c>
+      <c r="AL12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2027,6 +2057,9 @@
       <c r="AK13" t="s">
         <v>34</v>
       </c>
+      <c r="AL13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2137,6 +2170,9 @@
       <c r="AK14" t="s">
         <v>35</v>
       </c>
+      <c r="AL14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2250,6 +2286,9 @@
       <c r="AK15" t="s">
         <v>34</v>
       </c>
+      <c r="AL15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2363,8 +2402,11 @@
       <c r="AK16" t="s">
         <v>34</v>
       </c>
+      <c r="AL16" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125310</v>
       </c>
@@ -2476,8 +2518,11 @@
       <c r="AK17" t="s">
         <v>34</v>
       </c>
+      <c r="AL17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125295</v>
       </c>
@@ -2589,8 +2634,11 @@
       <c r="AK18" t="s">
         <v>35</v>
       </c>
+      <c r="AL18" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125251</v>
       </c>
@@ -2702,8 +2750,11 @@
       <c r="AK19" t="s">
         <v>34</v>
       </c>
+      <c r="AL19" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125334</v>
       </c>
@@ -2815,8 +2866,11 @@
       <c r="AK20" t="s">
         <v>34</v>
       </c>
+      <c r="AL20" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125297</v>
       </c>
@@ -2928,8 +2982,11 @@
       <c r="AK21" t="s">
         <v>34</v>
       </c>
+      <c r="AL21" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125234</v>
       </c>
@@ -3041,8 +3098,11 @@
       <c r="AK22" t="s">
         <v>34</v>
       </c>
+      <c r="AL22" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125216</v>
       </c>
@@ -3154,8 +3214,11 @@
       <c r="AK23" t="s">
         <v>35</v>
       </c>
+      <c r="AL23" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125236</v>
       </c>
@@ -3267,8 +3330,11 @@
       <c r="AK24" t="s">
         <v>34</v>
       </c>
+      <c r="AL24" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125238</v>
       </c>
@@ -3380,8 +3446,11 @@
       <c r="AK25" t="s">
         <v>35</v>
       </c>
+      <c r="AL25" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125218</v>
       </c>
@@ -3493,8 +3562,11 @@
       <c r="AK26" t="s">
         <v>34</v>
       </c>
+      <c r="AL26" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125220</v>
       </c>
@@ -3606,8 +3678,11 @@
       <c r="AK27" t="s">
         <v>34</v>
       </c>
+      <c r="AL27" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125299</v>
       </c>
@@ -3719,8 +3794,11 @@
       <c r="AK28" t="s">
         <v>34</v>
       </c>
+      <c r="AL28" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125301</v>
       </c>
@@ -3832,8 +3910,11 @@
       <c r="AK29" t="s">
         <v>34</v>
       </c>
+      <c r="AL29" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125316</v>
       </c>
@@ -3945,8 +4026,11 @@
       <c r="AK30" t="s">
         <v>34</v>
       </c>
+      <c r="AL30" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125306</v>
       </c>
@@ -4058,8 +4142,11 @@
       <c r="AK31" t="s">
         <v>34</v>
       </c>
+      <c r="AL31" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125254</v>
       </c>
@@ -4171,8 +4258,11 @@
       <c r="AK32" t="s">
         <v>35</v>
       </c>
+      <c r="AL32" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125347</v>
       </c>
@@ -4284,8 +4374,11 @@
       <c r="AK33" t="s">
         <v>34</v>
       </c>
+      <c r="AL33" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>40</v>
       </c>
@@ -4361,15 +4454,18 @@
       <c r="AK34" t="s">
         <v>34</v>
       </c>
+      <c r="AL34" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AF35" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:AI34">
     <sortCondition ref="B2"/>
   </sortState>
-  <conditionalFormatting sqref="D3:AD34 AF3:AK34">
+  <conditionalFormatting sqref="D3:AD34 AF3:AL34">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2em/1DES/chamada.xlsx
+++ b/2em/1DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\1DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95861815-039B-4A7D-B72F-B77EB56456AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741B0AF3-F36B-4279-833B-C4A8B956A165}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="46">
   <si>
     <t>Aluno</t>
   </si>
@@ -536,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL33" sqref="AL33"/>
+      <selection pane="bottomRight" activeCell="AM34" sqref="AM34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +556,7 @@
     <col min="35" max="37" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>32</v>
       </c>
@@ -665,8 +665,11 @@
       <c r="AM1" t="s">
         <v>33</v>
       </c>
+      <c r="AN1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -784,8 +787,11 @@
       <c r="AM2" s="1">
         <v>45450</v>
       </c>
+      <c r="AN2" s="1">
+        <v>45453</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -900,8 +906,11 @@
       <c r="AL3" t="s">
         <v>34</v>
       </c>
+      <c r="AM3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AL4" t="s">
         <v>34</v>
       </c>
+      <c r="AM4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24125230</v>
       </c>
@@ -1132,8 +1144,11 @@
       <c r="AL5" t="s">
         <v>34</v>
       </c>
+      <c r="AM5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24125329</v>
       </c>
@@ -1248,8 +1263,11 @@
       <c r="AL6" t="s">
         <v>35</v>
       </c>
+      <c r="AM6" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24125304</v>
       </c>
@@ -1364,8 +1382,11 @@
       <c r="AL7" t="s">
         <v>34</v>
       </c>
+      <c r="AM7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24125331</v>
       </c>
@@ -1480,8 +1501,11 @@
       <c r="AL8" t="s">
         <v>34</v>
       </c>
+      <c r="AM8" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24125308</v>
       </c>
@@ -1596,8 +1620,11 @@
       <c r="AL9" t="s">
         <v>35</v>
       </c>
+      <c r="AM9" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125247</v>
       </c>
@@ -1712,8 +1739,11 @@
       <c r="AL10" t="s">
         <v>34</v>
       </c>
+      <c r="AM10" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24125212</v>
       </c>
@@ -1828,8 +1858,11 @@
       <c r="AL11" t="s">
         <v>34</v>
       </c>
+      <c r="AM11" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24125232</v>
       </c>
@@ -1944,8 +1977,11 @@
       <c r="AL12" t="s">
         <v>34</v>
       </c>
+      <c r="AM12" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24125214</v>
       </c>
@@ -2060,8 +2096,11 @@
       <c r="AL13" t="s">
         <v>34</v>
       </c>
+      <c r="AM13" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -2173,8 +2212,11 @@
       <c r="AL14" t="s">
         <v>35</v>
       </c>
+      <c r="AM14" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24125249</v>
       </c>
@@ -2289,8 +2331,11 @@
       <c r="AL15" t="s">
         <v>34</v>
       </c>
+      <c r="AM15" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24125293</v>
       </c>
@@ -2405,8 +2450,11 @@
       <c r="AL16" t="s">
         <v>34</v>
       </c>
+      <c r="AM16" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125310</v>
       </c>
@@ -2521,8 +2569,11 @@
       <c r="AL17" t="s">
         <v>35</v>
       </c>
+      <c r="AM17" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125295</v>
       </c>
@@ -2637,8 +2688,11 @@
       <c r="AL18" t="s">
         <v>34</v>
       </c>
+      <c r="AM18" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125251</v>
       </c>
@@ -2753,8 +2807,11 @@
       <c r="AL19" t="s">
         <v>34</v>
       </c>
+      <c r="AM19" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125334</v>
       </c>
@@ -2869,8 +2926,11 @@
       <c r="AL20" t="s">
         <v>34</v>
       </c>
+      <c r="AM20" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125297</v>
       </c>
@@ -2985,8 +3045,11 @@
       <c r="AL21" t="s">
         <v>34</v>
       </c>
+      <c r="AM21" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125234</v>
       </c>
@@ -3101,8 +3164,11 @@
       <c r="AL22" t="s">
         <v>34</v>
       </c>
+      <c r="AM22" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125216</v>
       </c>
@@ -3217,8 +3283,11 @@
       <c r="AL23" t="s">
         <v>34</v>
       </c>
+      <c r="AM23" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125236</v>
       </c>
@@ -3333,8 +3402,11 @@
       <c r="AL24" t="s">
         <v>34</v>
       </c>
+      <c r="AM24" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125238</v>
       </c>
@@ -3449,8 +3521,11 @@
       <c r="AL25" t="s">
         <v>34</v>
       </c>
+      <c r="AM25" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125218</v>
       </c>
@@ -3565,8 +3640,11 @@
       <c r="AL26" t="s">
         <v>34</v>
       </c>
+      <c r="AM26" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125220</v>
       </c>
@@ -3681,8 +3759,11 @@
       <c r="AL27" t="s">
         <v>34</v>
       </c>
+      <c r="AM27" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125299</v>
       </c>
@@ -3797,8 +3878,11 @@
       <c r="AL28" t="s">
         <v>34</v>
       </c>
+      <c r="AM28" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125301</v>
       </c>
@@ -3913,8 +3997,11 @@
       <c r="AL29" t="s">
         <v>34</v>
       </c>
+      <c r="AM29" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125316</v>
       </c>
@@ -4029,8 +4116,11 @@
       <c r="AL30" t="s">
         <v>34</v>
       </c>
+      <c r="AM30" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125306</v>
       </c>
@@ -4145,8 +4235,11 @@
       <c r="AL31" t="s">
         <v>34</v>
       </c>
+      <c r="AM31" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125254</v>
       </c>
@@ -4261,8 +4354,11 @@
       <c r="AL32" t="s">
         <v>34</v>
       </c>
+      <c r="AM32" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125347</v>
       </c>
@@ -4377,8 +4473,11 @@
       <c r="AL33" t="s">
         <v>34</v>
       </c>
+      <c r="AM33" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>40</v>
       </c>
@@ -4457,15 +4556,18 @@
       <c r="AL34" t="s">
         <v>34</v>
       </c>
+      <c r="AM34" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AF35" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:AI34">
     <sortCondition ref="B2"/>
   </sortState>
-  <conditionalFormatting sqref="D3:AD34 AF3:AL34">
+  <conditionalFormatting sqref="D3:AD34 AF3:AM34">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2em/1DES/chamada.xlsx
+++ b/2em/1DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\1DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741B0AF3-F36B-4279-833B-C4A8B956A165}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B668BBF2-5503-4C09-9239-A8E44E00D642}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="46">
   <si>
     <t>Aluno</t>
   </si>
@@ -536,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AP35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM34" sqref="AM34"/>
+      <selection pane="bottomRight" activeCell="AN27" sqref="AN27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +556,7 @@
     <col min="35" max="37" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>32</v>
       </c>
@@ -668,8 +668,14 @@
       <c r="AN1" t="s">
         <v>32</v>
       </c>
+      <c r="AO1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -790,8 +796,14 @@
       <c r="AN2" s="1">
         <v>45453</v>
       </c>
+      <c r="AO2" s="1">
+        <v>45457</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>45460</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -909,8 +921,11 @@
       <c r="AM3" t="s">
         <v>34</v>
       </c>
+      <c r="AN3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -1028,8 +1043,11 @@
       <c r="AM4" t="s">
         <v>34</v>
       </c>
+      <c r="AN4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24125230</v>
       </c>
@@ -1147,8 +1165,11 @@
       <c r="AM5" t="s">
         <v>34</v>
       </c>
+      <c r="AN5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24125329</v>
       </c>
@@ -1266,8 +1287,11 @@
       <c r="AM6" t="s">
         <v>34</v>
       </c>
+      <c r="AN6" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24125304</v>
       </c>
@@ -1385,8 +1409,11 @@
       <c r="AM7" t="s">
         <v>34</v>
       </c>
+      <c r="AN7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24125331</v>
       </c>
@@ -1504,8 +1531,11 @@
       <c r="AM8" t="s">
         <v>34</v>
       </c>
+      <c r="AN8" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24125308</v>
       </c>
@@ -1623,8 +1653,11 @@
       <c r="AM9" t="s">
         <v>35</v>
       </c>
+      <c r="AN9" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125247</v>
       </c>
@@ -1742,8 +1775,11 @@
       <c r="AM10" t="s">
         <v>34</v>
       </c>
+      <c r="AN10" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24125212</v>
       </c>
@@ -1861,8 +1897,11 @@
       <c r="AM11" t="s">
         <v>34</v>
       </c>
+      <c r="AN11" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24125232</v>
       </c>
@@ -1980,8 +2019,11 @@
       <c r="AM12" t="s">
         <v>34</v>
       </c>
+      <c r="AN12" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24125214</v>
       </c>
@@ -2099,8 +2141,11 @@
       <c r="AM13" t="s">
         <v>34</v>
       </c>
+      <c r="AN13" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -2215,8 +2260,11 @@
       <c r="AM14" t="s">
         <v>35</v>
       </c>
+      <c r="AN14" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24125249</v>
       </c>
@@ -2334,8 +2382,11 @@
       <c r="AM15" t="s">
         <v>34</v>
       </c>
+      <c r="AN15" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24125293</v>
       </c>
@@ -2453,8 +2504,11 @@
       <c r="AM16" t="s">
         <v>34</v>
       </c>
+      <c r="AN16" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125310</v>
       </c>
@@ -2572,8 +2626,11 @@
       <c r="AM17" t="s">
         <v>34</v>
       </c>
+      <c r="AN17" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125295</v>
       </c>
@@ -2691,8 +2748,11 @@
       <c r="AM18" t="s">
         <v>35</v>
       </c>
+      <c r="AN18" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125251</v>
       </c>
@@ -2810,8 +2870,11 @@
       <c r="AM19" t="s">
         <v>34</v>
       </c>
+      <c r="AN19" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125334</v>
       </c>
@@ -2929,8 +2992,11 @@
       <c r="AM20" t="s">
         <v>34</v>
       </c>
+      <c r="AN20" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125297</v>
       </c>
@@ -3048,8 +3114,11 @@
       <c r="AM21" t="s">
         <v>34</v>
       </c>
+      <c r="AN21" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125234</v>
       </c>
@@ -3167,8 +3236,11 @@
       <c r="AM22" t="s">
         <v>34</v>
       </c>
+      <c r="AN22" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125216</v>
       </c>
@@ -3286,8 +3358,11 @@
       <c r="AM23" t="s">
         <v>34</v>
       </c>
+      <c r="AN23" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125236</v>
       </c>
@@ -3405,8 +3480,11 @@
       <c r="AM24" t="s">
         <v>39</v>
       </c>
+      <c r="AN24" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125238</v>
       </c>
@@ -3524,8 +3602,11 @@
       <c r="AM25" t="s">
         <v>34</v>
       </c>
+      <c r="AN25" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125218</v>
       </c>
@@ -3643,8 +3724,11 @@
       <c r="AM26" t="s">
         <v>34</v>
       </c>
+      <c r="AN26" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125220</v>
       </c>
@@ -3763,7 +3847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125299</v>
       </c>
@@ -3881,8 +3965,11 @@
       <c r="AM28" t="s">
         <v>34</v>
       </c>
+      <c r="AN28" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125301</v>
       </c>
@@ -4000,8 +4087,11 @@
       <c r="AM29" t="s">
         <v>34</v>
       </c>
+      <c r="AN29" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125316</v>
       </c>
@@ -4119,8 +4209,11 @@
       <c r="AM30" t="s">
         <v>34</v>
       </c>
+      <c r="AN30" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125306</v>
       </c>
@@ -4238,8 +4331,11 @@
       <c r="AM31" t="s">
         <v>34</v>
       </c>
+      <c r="AN31" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125254</v>
       </c>
@@ -4357,8 +4453,11 @@
       <c r="AM32" t="s">
         <v>34</v>
       </c>
+      <c r="AN32" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125347</v>
       </c>
@@ -4476,8 +4575,11 @@
       <c r="AM33" t="s">
         <v>34</v>
       </c>
+      <c r="AN33" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>40</v>
       </c>
@@ -4559,15 +4661,18 @@
       <c r="AM34" t="s">
         <v>34</v>
       </c>
+      <c r="AN34" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AF35" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:AI34">
     <sortCondition ref="B2"/>
   </sortState>
-  <conditionalFormatting sqref="D3:AD34 AF3:AM34">
+  <conditionalFormatting sqref="D3:AD34 AF3:AM34 AN3:AN26 AN28:AN34">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2em/1DES/chamada.xlsx
+++ b/2em/1DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\1DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B668BBF2-5503-4C09-9239-A8E44E00D642}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE06AE5-354F-4A3F-B1BA-2A625952C779}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="46">
   <si>
     <t>Aluno</t>
   </si>
@@ -542,7 +542,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN27" sqref="AN27"/>
+      <selection pane="bottomRight" activeCell="AN28" sqref="AN28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3846,6 +3846,9 @@
       <c r="AM27" t="s">
         <v>34</v>
       </c>
+      <c r="AN27" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -4672,7 +4675,7 @@
   <sortState ref="A3:AI34">
     <sortCondition ref="B2"/>
   </sortState>
-  <conditionalFormatting sqref="D3:AD34 AF3:AM34 AN3:AN26 AN28:AN34">
+  <conditionalFormatting sqref="D3:AD34 AF3:AN34">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2em/1DES/chamada.xlsx
+++ b/2em/1DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\1DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE06AE5-354F-4A3F-B1BA-2A625952C779}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EB66B3-B247-4AD4-8535-B09C79913654}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="46">
   <si>
     <t>Aluno</t>
   </si>
@@ -542,7 +542,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN28" sqref="AN28"/>
+      <selection pane="bottomRight" activeCell="AO33" sqref="AO33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,6 +924,9 @@
       <c r="AN3" t="s">
         <v>34</v>
       </c>
+      <c r="AO3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1046,6 +1049,9 @@
       <c r="AN4" t="s">
         <v>34</v>
       </c>
+      <c r="AO4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1168,6 +1174,9 @@
       <c r="AN5" t="s">
         <v>34</v>
       </c>
+      <c r="AO5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1290,6 +1299,9 @@
       <c r="AN6" t="s">
         <v>34</v>
       </c>
+      <c r="AO6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1412,6 +1424,9 @@
       <c r="AN7" t="s">
         <v>34</v>
       </c>
+      <c r="AO7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1534,6 +1549,9 @@
       <c r="AN8" t="s">
         <v>34</v>
       </c>
+      <c r="AO8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1656,6 +1674,9 @@
       <c r="AN9" t="s">
         <v>34</v>
       </c>
+      <c r="AO9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1778,6 +1799,9 @@
       <c r="AN10" t="s">
         <v>34</v>
       </c>
+      <c r="AO10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1900,6 +1924,9 @@
       <c r="AN11" t="s">
         <v>34</v>
       </c>
+      <c r="AO11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2022,6 +2049,9 @@
       <c r="AN12" t="s">
         <v>34</v>
       </c>
+      <c r="AO12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2144,6 +2174,9 @@
       <c r="AN13" t="s">
         <v>34</v>
       </c>
+      <c r="AO13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2263,6 +2296,9 @@
       <c r="AN14" t="s">
         <v>35</v>
       </c>
+      <c r="AO14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2385,6 +2421,9 @@
       <c r="AN15" t="s">
         <v>34</v>
       </c>
+      <c r="AO15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2507,8 +2546,11 @@
       <c r="AN16" t="s">
         <v>34</v>
       </c>
+      <c r="AO16" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125310</v>
       </c>
@@ -2629,8 +2671,11 @@
       <c r="AN17" t="s">
         <v>34</v>
       </c>
+      <c r="AO17" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125295</v>
       </c>
@@ -2751,8 +2796,11 @@
       <c r="AN18" t="s">
         <v>34</v>
       </c>
+      <c r="AO18" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125251</v>
       </c>
@@ -2873,8 +2921,11 @@
       <c r="AN19" t="s">
         <v>34</v>
       </c>
+      <c r="AO19" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125334</v>
       </c>
@@ -2995,8 +3046,11 @@
       <c r="AN20" t="s">
         <v>34</v>
       </c>
+      <c r="AO20" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125297</v>
       </c>
@@ -3117,8 +3171,11 @@
       <c r="AN21" t="s">
         <v>34</v>
       </c>
+      <c r="AO21" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125234</v>
       </c>
@@ -3239,8 +3296,11 @@
       <c r="AN22" t="s">
         <v>34</v>
       </c>
+      <c r="AO22" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125216</v>
       </c>
@@ -3361,8 +3421,11 @@
       <c r="AN23" t="s">
         <v>34</v>
       </c>
+      <c r="AO23" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125236</v>
       </c>
@@ -3483,8 +3546,11 @@
       <c r="AN24" t="s">
         <v>34</v>
       </c>
+      <c r="AO24" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125238</v>
       </c>
@@ -3605,8 +3671,11 @@
       <c r="AN25" t="s">
         <v>34</v>
       </c>
+      <c r="AO25" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125218</v>
       </c>
@@ -3727,8 +3796,11 @@
       <c r="AN26" t="s">
         <v>34</v>
       </c>
+      <c r="AO26" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125220</v>
       </c>
@@ -3849,8 +3921,11 @@
       <c r="AN27" t="s">
         <v>34</v>
       </c>
+      <c r="AO27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125299</v>
       </c>
@@ -3971,8 +4046,11 @@
       <c r="AN28" t="s">
         <v>34</v>
       </c>
+      <c r="AO28" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125301</v>
       </c>
@@ -4093,8 +4171,11 @@
       <c r="AN29" t="s">
         <v>34</v>
       </c>
+      <c r="AO29" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125316</v>
       </c>
@@ -4215,8 +4296,11 @@
       <c r="AN30" t="s">
         <v>34</v>
       </c>
+      <c r="AO30" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125306</v>
       </c>
@@ -4337,8 +4421,11 @@
       <c r="AN31" t="s">
         <v>34</v>
       </c>
+      <c r="AO31" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125254</v>
       </c>
@@ -4459,8 +4546,11 @@
       <c r="AN32" t="s">
         <v>34</v>
       </c>
+      <c r="AO32" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125347</v>
       </c>
@@ -4581,8 +4671,11 @@
       <c r="AN33" t="s">
         <v>34</v>
       </c>
+      <c r="AO33" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>40</v>
       </c>
@@ -4667,15 +4760,18 @@
       <c r="AN34" t="s">
         <v>34</v>
       </c>
+      <c r="AO34" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AF35" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:AI34">
     <sortCondition ref="B2"/>
   </sortState>
-  <conditionalFormatting sqref="D3:AD34 AF3:AN34">
+  <conditionalFormatting sqref="D3:AD34 AF3:AN34 AO3:AP4 AO5:AO34">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2em/1DES/chamada.xlsx
+++ b/2em/1DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\1DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EB66B3-B247-4AD4-8535-B09C79913654}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47935386-7819-4330-ADF8-232DF7B1073D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="47">
   <si>
     <t>Aluno</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>2/P</t>
+  </si>
+  <si>
+    <t>Ter</t>
   </si>
 </sst>
 </file>
@@ -536,13 +539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP35"/>
+  <dimension ref="A1:AQ35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO33" sqref="AO33"/>
+      <selection pane="bottomRight" activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +559,7 @@
     <col min="35" max="37" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>32</v>
       </c>
@@ -674,8 +677,11 @@
       <c r="AP1" t="s">
         <v>32</v>
       </c>
+      <c r="AQ1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -802,8 +808,11 @@
       <c r="AP2" s="1">
         <v>45460</v>
       </c>
+      <c r="AQ2" s="1">
+        <v>45464</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24125208</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="AO3" t="s">
         <v>34</v>
       </c>
+      <c r="AP3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24125210</v>
       </c>
@@ -1052,8 +1064,11 @@
       <c r="AO4" t="s">
         <v>35</v>
       </c>
+      <c r="AP4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24125230</v>
       </c>
@@ -1177,8 +1192,11 @@
       <c r="AO5" t="s">
         <v>34</v>
       </c>
+      <c r="AP5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24125329</v>
       </c>
@@ -1302,8 +1320,11 @@
       <c r="AO6" t="s">
         <v>35</v>
       </c>
+      <c r="AP6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>24125304</v>
       </c>
@@ -1427,8 +1448,11 @@
       <c r="AO7" t="s">
         <v>34</v>
       </c>
+      <c r="AP7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>24125331</v>
       </c>
@@ -1552,8 +1576,11 @@
       <c r="AO8" t="s">
         <v>35</v>
       </c>
+      <c r="AP8" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24125308</v>
       </c>
@@ -1677,8 +1704,11 @@
       <c r="AO9" t="s">
         <v>34</v>
       </c>
+      <c r="AP9" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>24125247</v>
       </c>
@@ -1802,8 +1832,11 @@
       <c r="AO10" t="s">
         <v>34</v>
       </c>
+      <c r="AP10" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24125212</v>
       </c>
@@ -1927,8 +1960,11 @@
       <c r="AO11" t="s">
         <v>34</v>
       </c>
+      <c r="AP11" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24125232</v>
       </c>
@@ -2052,8 +2088,11 @@
       <c r="AO12" t="s">
         <v>34</v>
       </c>
+      <c r="AP12" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24125214</v>
       </c>
@@ -2177,8 +2216,11 @@
       <c r="AO13" t="s">
         <v>34</v>
       </c>
+      <c r="AP13" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -2299,8 +2341,11 @@
       <c r="AO14" t="s">
         <v>35</v>
       </c>
+      <c r="AP14" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>24125249</v>
       </c>
@@ -2424,8 +2469,11 @@
       <c r="AO15" t="s">
         <v>34</v>
       </c>
+      <c r="AP15" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24125293</v>
       </c>
@@ -2549,8 +2597,11 @@
       <c r="AO16" t="s">
         <v>34</v>
       </c>
+      <c r="AP16" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>24125310</v>
       </c>
@@ -2674,8 +2725,11 @@
       <c r="AO17" t="s">
         <v>34</v>
       </c>
+      <c r="AP17" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24125295</v>
       </c>
@@ -2799,8 +2853,11 @@
       <c r="AO18" t="s">
         <v>34</v>
       </c>
+      <c r="AP18" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24125251</v>
       </c>
@@ -2924,8 +2981,11 @@
       <c r="AO19" t="s">
         <v>34</v>
       </c>
+      <c r="AP19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24125334</v>
       </c>
@@ -3049,8 +3109,11 @@
       <c r="AO20" t="s">
         <v>34</v>
       </c>
+      <c r="AP20" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24125297</v>
       </c>
@@ -3174,8 +3237,11 @@
       <c r="AO21" t="s">
         <v>34</v>
       </c>
+      <c r="AP21" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24125234</v>
       </c>
@@ -3299,8 +3365,11 @@
       <c r="AO22" t="s">
         <v>34</v>
       </c>
+      <c r="AP22" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24125216</v>
       </c>
@@ -3424,8 +3493,11 @@
       <c r="AO23" t="s">
         <v>34</v>
       </c>
+      <c r="AP23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24125236</v>
       </c>
@@ -3549,8 +3621,11 @@
       <c r="AO24" t="s">
         <v>34</v>
       </c>
+      <c r="AP24" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24125238</v>
       </c>
@@ -3674,8 +3749,11 @@
       <c r="AO25" t="s">
         <v>34</v>
       </c>
+      <c r="AP25" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24125218</v>
       </c>
@@ -3799,8 +3877,11 @@
       <c r="AO26" t="s">
         <v>34</v>
       </c>
+      <c r="AP26" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24125220</v>
       </c>
@@ -3924,8 +4005,11 @@
       <c r="AO27" t="s">
         <v>35</v>
       </c>
+      <c r="AP27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24125299</v>
       </c>
@@ -4049,8 +4133,11 @@
       <c r="AO28" t="s">
         <v>34</v>
       </c>
+      <c r="AP28" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24125301</v>
       </c>
@@ -4174,8 +4261,11 @@
       <c r="AO29" t="s">
         <v>34</v>
       </c>
+      <c r="AP29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24125316</v>
       </c>
@@ -4299,8 +4389,11 @@
       <c r="AO30" t="s">
         <v>34</v>
       </c>
+      <c r="AP30" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24125306</v>
       </c>
@@ -4424,8 +4517,11 @@
       <c r="AO31" t="s">
         <v>34</v>
       </c>
+      <c r="AP31" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24125254</v>
       </c>
@@ -4549,8 +4645,11 @@
       <c r="AO32" t="s">
         <v>35</v>
       </c>
+      <c r="AP32" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>24125347</v>
       </c>
@@ -4674,8 +4773,11 @@
       <c r="AO33" t="s">
         <v>34</v>
       </c>
+      <c r="AP33" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>40</v>
       </c>
@@ -4763,15 +4865,18 @@
       <c r="AO34" t="s">
         <v>35</v>
       </c>
+      <c r="AP34" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AF35" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A3:AI34">
     <sortCondition ref="B2"/>
   </sortState>
-  <conditionalFormatting sqref="D3:AD34 AF3:AN34 AO3:AP4 AO5:AO34">
+  <conditionalFormatting sqref="D3:AD34 AF3:AP34">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"f"</formula>
     </cfRule>

--- a/2em/1DES/chamada.xlsx
+++ b/2em/1DES/chamada.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\1DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47935386-7819-4330-ADF8-232DF7B1073D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51E6FE5-F55A-46E6-B3E6-7E36A570906E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -542,10 +542,10 @@
   <dimension ref="A1:AQ35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U38" sqref="U38"/>
+      <selection pane="bottomRight" activeCell="AO34" sqref="AO34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +554,7 @@
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="34" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="35" max="37" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
